--- a/Waxing_Ver_02_Documents/02_Specification/03_DataBase/Reservation.xlsx
+++ b/Waxing_Ver_02_Documents/02_Specification/03_DataBase/Reservation.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="7560"/>
   </bookViews>
   <sheets>
-    <sheet name="TASKS" sheetId="1" r:id="rId1"/>
+    <sheet name="Database_Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">TASKS!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Database_Sheet!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -570,30 +570,75 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,51 +646,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -920,7 +920,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1076,37 +1076,37 @@
       <c r="AN4" s="20"/>
     </row>
     <row r="5" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
       <c r="AH5" s="21"/>
       <c r="AI5" s="21"/>
       <c r="AJ5" s="21"/>
@@ -1131,22 +1131,22 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -1234,55 +1234,55 @@
       <c r="AO8" s="17"/>
     </row>
     <row r="9" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26">
+      <c r="B9" s="45">
         <v>1</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29" t="s">
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="24" t="s">
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24" t="s">
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="43" t="s">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="V9" s="43"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24" t="s">
+      <c r="V9" s="34"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="25"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="31"/>
       <c r="AK9" s="18"/>
       <c r="AL9" s="19"/>
       <c r="AM9" s="19"/>
@@ -1290,55 +1290,55 @@
       <c r="AO9" s="19"/>
     </row>
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26">
+      <c r="B10" s="45">
         <v>2</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="24" t="s">
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24">
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30">
         <v>60</v>
       </c>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24" t="s">
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24" t="s">
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="25"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="31"/>
       <c r="AK10" s="18"/>
       <c r="AL10" s="19"/>
       <c r="AM10" s="19"/>
@@ -1346,53 +1346,53 @@
       <c r="AO10" s="19"/>
     </row>
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26">
+      <c r="B11" s="45">
         <v>3</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="24" t="s">
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24">
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30">
         <v>3</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24" t="s">
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="25"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="31"/>
       <c r="AK11" s="18"/>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19"/>
@@ -1400,55 +1400,55 @@
       <c r="AO11" s="19"/>
     </row>
     <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26">
+      <c r="B12" s="45">
         <v>4</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29" t="s">
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="24" t="s">
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24" t="s">
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24" t="s">
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24" t="s">
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="25"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="30"/>
+      <c r="AG12" s="30"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="30"/>
+      <c r="AJ12" s="31"/>
       <c r="AK12" s="18"/>
       <c r="AL12" s="19"/>
       <c r="AM12" s="19"/>
@@ -1456,55 +1456,55 @@
       <c r="AO12" s="19"/>
     </row>
     <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="26">
+      <c r="B13" s="45">
         <v>5</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="24" t="s">
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24" t="s">
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24" t="s">
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24" t="s">
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="25"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="31"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
@@ -1512,51 +1512,51 @@
       <c r="AO13" s="19"/>
     </row>
     <row r="14" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26">
+      <c r="B14" s="45">
         <v>6</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="24" t="s">
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24" t="s">
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="25"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="31"/>
       <c r="AK14" s="18"/>
       <c r="AL14" s="19"/>
       <c r="AM14" s="19"/>
@@ -1564,53 +1564,53 @@
       <c r="AO14" s="19"/>
     </row>
     <row r="15" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26">
+      <c r="B15" s="45">
         <v>7</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="24" t="s">
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24">
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30">
         <v>1</v>
       </c>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24" t="s">
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="25"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="31"/>
       <c r="AK15" s="18"/>
       <c r="AL15" s="19"/>
       <c r="AM15" s="19"/>
@@ -1618,55 +1618,55 @@
       <c r="AO15" s="19"/>
     </row>
     <row r="16" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30">
+      <c r="B16" s="43">
         <v>8</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="48" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="44" t="s">
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44">
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24">
         <v>1</v>
       </c>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="24" t="s">
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="44"/>
-      <c r="AG16" s="45" t="s">
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AH16" s="46"/>
-      <c r="AI16" s="46"/>
-      <c r="AJ16" s="47"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="27"/>
       <c r="AK16" s="18"/>
       <c r="AL16" s="19"/>
       <c r="AM16" s="19"/>
@@ -1675,14 +1675,72 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="X16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AJ16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:AA15"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="AG15:AJ15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="U5:AG5"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="U2:AG2"/>
+    <mergeCell ref="U3:AG3"/>
+    <mergeCell ref="U4:AG4"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="E2:R2"/>
+    <mergeCell ref="E3:R3"/>
+    <mergeCell ref="E4:R4"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="R8:T8"/>
     <mergeCell ref="AG9:AJ9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="H10:N10"/>
@@ -1699,72 +1757,14 @@
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="R9:T9"/>
     <mergeCell ref="U9:W9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="U2:AG2"/>
-    <mergeCell ref="U3:AG3"/>
-    <mergeCell ref="U4:AG4"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="AG8:AJ8"/>
-    <mergeCell ref="E2:R2"/>
-    <mergeCell ref="E3:R3"/>
-    <mergeCell ref="E4:R4"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="U5:AG5"/>
-    <mergeCell ref="E5:R5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AF12"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AG14:AJ14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:AA15"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="AG15:AJ15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="X16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AJ16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="U16:W16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
